--- a/SCBAA/2020/NIR.xlsx
+++ b/SCBAA/2020/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90D9B4-0526-4A35-B7E8-8CF52070320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F6F5D-02B1-4A45-A2EC-DE355C5B472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="240" windowWidth="14625" windowHeight="12540" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="10" r:id="rId1"/>
@@ -36,6 +36,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1892,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -22137,8 +22144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E1C0D5-92D8-45B1-805B-D2EA38DB16A5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22392,9 +22399,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="59">
-        <v>0</v>
-      </c>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -22447,9 +22452,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="63">
-        <v>0</v>
-      </c>
+      <c r="E28" s="63"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>

--- a/SCBAA/2020/NIR.xlsx
+++ b/SCBAA/2020/NIR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\thesis\SCBAA\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F6F5D-02B1-4A45-A2EC-DE355C5B472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEB5F5-F03A-4BBA-805F-0EC1E72CE2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="12" activeTab="17" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="10" r:id="rId1"/>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C63FAB-F416-4509-96DA-4E54AB1A9B4D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F109" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3215,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="69">
-        <f>293821.24+5048115.34</f>
         <v>5341936.58</v>
       </c>
     </row>
@@ -3227,7 +3226,6 @@
         <v>25</v>
       </c>
       <c r="E12" s="69">
-        <f>98560+9217649.13+82028.7</f>
         <v>9398237.8300000001</v>
       </c>
     </row>
@@ -3239,7 +3237,6 @@
         <v>26</v>
       </c>
       <c r="E13" s="70">
-        <f>11400+942176.19+1161975.32</f>
         <v>2115551.5099999998</v>
       </c>
     </row>
@@ -3251,7 +3248,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>16855725.920000002</v>
       </c>
     </row>
@@ -3272,7 +3268,6 @@
         <v>27</v>
       </c>
       <c r="E16" s="69">
-        <f>1100+2187016.71+283090+722825+14014.2+92200+112080+213250</f>
         <v>3625575.91</v>
       </c>
     </row>
@@ -3284,7 +3279,6 @@
         <v>28</v>
       </c>
       <c r="E17" s="69">
-        <f>304950+622455+632700+1958576+49896+2443635.46+343561.24+141093.43+43797.42</f>
         <v>6540664.5499999998</v>
       </c>
     </row>
@@ -3307,7 +3301,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>10582348.040000001</v>
       </c>
     </row>
@@ -3423,7 +3416,6 @@
         <v>40</v>
       </c>
       <c r="E30" s="69">
-        <f>8685320+11178335.38</f>
         <v>19863655.380000003</v>
       </c>
     </row>
@@ -3499,7 +3491,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>846101453.28000009</v>
       </c>
     </row>
@@ -4076,7 +4067,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>742912660.9799999</v>
       </c>
     </row>
@@ -4243,7 +4233,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="70">
-        <f>34130+13429512.32</f>
         <v>13463642.32</v>
       </c>
     </row>
@@ -4252,7 +4241,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="67">
-        <f>SUM(E95:E110)</f>
         <v>16433292.32</v>
       </c>
     </row>
@@ -4264,7 +4252,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>759345953.29999995</v>
       </c>
     </row>
@@ -6666,8 +6653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B151A38-8AA7-4E7E-886D-535137BEFA42}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,7 +6779,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="76">
-        <f>21392209.58+64683184.81</f>
         <v>86075394.390000001</v>
       </c>
     </row>
@@ -6826,7 +6812,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>155374647.68000001</v>
       </c>
     </row>
@@ -6869,7 +6854,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="77">
-        <f>3115648.43+1500552.66</f>
         <v>4616201.09</v>
       </c>
     </row>
@@ -6881,7 +6865,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>180419536.00000003</v>
       </c>
     </row>
@@ -7072,7 +7055,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1549389069.8800001</v>
       </c>
     </row>
@@ -7171,7 +7153,6 @@
         <v>12</v>
       </c>
       <c r="E47" s="76">
-        <f>4167065.05+20267528.77</f>
         <v>24434593.82</v>
       </c>
     </row>
@@ -7650,7 +7631,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1187297900.04</v>
       </c>
     </row>
@@ -7708,7 +7688,6 @@
         <v>13</v>
       </c>
       <c r="E98" s="76">
-        <f>2951471.41+2951471.41</f>
         <v>5902942.8200000003</v>
       </c>
     </row>
@@ -7826,7 +7805,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="67">
-        <f>SUM(E95:E110)</f>
         <v>117687321.14</v>
       </c>
     </row>
@@ -7838,7 +7816,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1304985221.1800001</v>
       </c>
     </row>
@@ -10241,8 +10218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF578D2-F309-417B-9A2F-4F3D11FD86B0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F107" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10400,7 +10377,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>107449141.46000001</v>
       </c>
     </row>
@@ -10454,7 +10430,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>16543840.119999999</v>
       </c>
     </row>
@@ -10645,7 +10620,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>809292305.09000003</v>
       </c>
     </row>
@@ -10996,7 +10970,6 @@
         <v>12</v>
       </c>
       <c r="E71" s="92">
-        <f>33344090.26+3543047.5</f>
         <v>36887137.760000005</v>
       </c>
     </row>
@@ -11223,7 +11196,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>839277453.64999998</v>
       </c>
     </row>
@@ -11390,7 +11362,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="92">
-        <f>46124564.37+198165</f>
         <v>46322729.369999997</v>
       </c>
     </row>
@@ -11399,7 +11370,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="67">
-        <f>SUM(E95:E110)</f>
         <v>87375653.930000007</v>
       </c>
     </row>
@@ -11411,7 +11381,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>926653107.57999992</v>
       </c>
     </row>
@@ -12623,8 +12592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB293AF-F645-44BD-B923-1DFD3B550384}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12782,7 +12751,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>72604001.25999999</v>
       </c>
     </row>
@@ -12836,7 +12804,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>31443809.25</v>
       </c>
     </row>
@@ -13027,7 +12994,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>646640235.50999999</v>
       </c>
     </row>
@@ -13573,7 +13539,6 @@
         <v>58</v>
       </c>
       <c r="E90" s="95">
-        <f>46889500.35+7627406.22</f>
         <v>54516906.57</v>
       </c>
     </row>
@@ -13585,7 +13550,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="95">
-        <f>73316237.17+9428966.27</f>
         <v>82745203.439999998</v>
       </c>
     </row>
@@ -13606,7 +13570,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>629476189.85000014</v>
       </c>
     </row>
@@ -13773,7 +13736,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="95">
-        <f>1896150+60820335.62</f>
         <v>62716485.619999997</v>
       </c>
     </row>
@@ -13782,7 +13744,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="67">
-        <f>SUM(E95:E110)</f>
         <v>67616109.299999997</v>
       </c>
     </row>
@@ -13794,7 +13755,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>697092299.1500001</v>
       </c>
     </row>
@@ -16195,8 +16155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E9FECE-CDBA-444C-853F-0ABE9B95C866}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F86" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16343,7 +16303,6 @@
         <v>26</v>
       </c>
       <c r="E13" s="41">
-        <f>3080069.31+13801218.28</f>
         <v>16881287.59</v>
       </c>
     </row>
@@ -16355,7 +16314,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>54308253.909999996</v>
       </c>
     </row>
@@ -16409,7 +16367,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>45408635.959999993</v>
       </c>
     </row>
@@ -16600,7 +16557,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1328825440.8699999</v>
       </c>
     </row>
@@ -17177,7 +17133,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1086336487.033</v>
       </c>
     </row>
@@ -17352,7 +17307,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>144303672.93000001</v>
       </c>
     </row>
@@ -17364,7 +17318,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1230640159.9630001</v>
       </c>
     </row>
@@ -22144,7 +22097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E1C0D5-92D8-45B1-805B-D2EA38DB16A5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
